--- a/result.xlsx
+++ b/result.xlsx
@@ -33,7 +33,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -44,6 +44,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD1162F"/>
         <bgColor rgb="FFD1162F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00d1162f"/>
+        <bgColor rgb="00d1162f"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000962f"/>
+        <bgColor rgb="0000962f"/>
       </patternFill>
     </fill>
   </fills>
@@ -61,12 +73,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -468,8 +486,8 @@
   </sheetPr>
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q16" workbookViewId="0">
-      <selection activeCell="Y28" sqref="Y28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -564,7 +582,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>0</v>
@@ -573,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -608,7 +626,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>0</v>
@@ -617,7 +635,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7">
@@ -706,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>0</v>
@@ -714,8 +732,8 @@
       <c r="E11" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F11" s="2" t="n">
-        <v>0</v>
+      <c r="F11" s="4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -728,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>0</v>
@@ -736,8 +754,8 @@
       <c r="E12" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F12" s="2" t="n">
-        <v>0</v>
+      <c r="F12" s="4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -750,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>0</v>
@@ -758,8 +776,8 @@
       <c r="E13" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F13" s="2" t="n">
-        <v>1</v>
+      <c r="F13" s="4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -772,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>0</v>
@@ -780,8 +798,8 @@
       <c r="E14" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F14" s="2" t="n">
-        <v>0</v>
+      <c r="F14" s="4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -794,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>0</v>
@@ -802,8 +820,8 @@
       <c r="E15" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F15" s="2" t="n">
-        <v>1</v>
+      <c r="F15" s="4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -824,7 +842,7 @@
       <c r="E16" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F16" s="2" t="n">
+      <c r="F16" s="3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -846,7 +864,7 @@
       <c r="E17" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F17" s="2" t="n">
+      <c r="F17" s="3" t="n">
         <v>0</v>
       </c>
     </row>
